--- a/Work Logs/Work Log Spreadsheet - Jonathan Mak.xlsx
+++ b/Work Logs/Work Log Spreadsheet - Jonathan Mak.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>added some php for adding topics, replies, and votes</t>
+  </si>
+  <si>
+    <t>Oct 29th</t>
+  </si>
+  <si>
+    <t>came up with notes from survey results, made first draft of a UI</t>
   </si>
 </sst>
 </file>
@@ -132,10 +138,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -471,7 +477,7 @@
       <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -485,7 +491,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -497,7 +503,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -512,7 +518,7 @@
       <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -526,7 +532,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
@@ -538,7 +544,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A10" s="5"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
@@ -556,11 +562,22 @@
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="1">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Work Logs/Work Log Spreadsheet - Jonathan Mak.xlsx
+++ b/Work Logs/Work Log Spreadsheet - Jonathan Mak.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -89,6 +89,21 @@
   </si>
   <si>
     <t>came up with notes from survey results, made first draft of a UI</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Nov 2nd</t>
+  </si>
+  <si>
+    <t>Nov 3rd</t>
+  </si>
+  <si>
+    <t>worked on slides for presentation</t>
+  </si>
+  <si>
+    <t>meeting about prototype choices/designs</t>
   </si>
 </sst>
 </file>
@@ -436,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -580,6 +595,31 @@
         <v>2</v>
       </c>
     </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A4:A6"/>

--- a/Work Logs/Work Log Spreadsheet - Jonathan Mak.xlsx
+++ b/Work Logs/Work Log Spreadsheet - Jonathan Mak.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -104,6 +104,27 @@
   </si>
   <si>
     <t>meeting about prototype choices/designs</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Nov 10th</t>
+  </si>
+  <si>
+    <t>wrote down results from yahoo answers research</t>
+  </si>
+  <si>
+    <t>Nov 5th</t>
+  </si>
+  <si>
+    <t>researched yahoo answers, looked at studies</t>
+  </si>
+  <si>
+    <t>Nov 12th</t>
+  </si>
+  <si>
+    <t>group meeting to discuss results of tool analysis. Wrote up paragraphs for yahoo answers</t>
   </si>
 </sst>
 </file>
@@ -451,15 +472,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="71.42578125" customWidth="1"/>
+    <col min="3" max="3" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
@@ -618,6 +639,39 @@
       </c>
       <c r="D16" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Work Logs/Work Log Spreadsheet - Jonathan Mak.xlsx
+++ b/Work Logs/Work Log Spreadsheet - Jonathan Mak.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -125,6 +125,21 @@
   </si>
   <si>
     <t>group meeting to discuss results of tool analysis. Wrote up paragraphs for yahoo answers</t>
+  </si>
+  <si>
+    <t>Nov 15th</t>
+  </si>
+  <si>
+    <t>UI paper prototype group meeting</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Nov 22nd</t>
+  </si>
+  <si>
+    <t>watched recorded user study, analyzed results</t>
   </si>
 </sst>
 </file>
@@ -472,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -674,6 +689,31 @@
         <v>4</v>
       </c>
     </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A4:A6"/>

--- a/Work Logs/Work Log Spreadsheet - Jonathan Mak.xlsx
+++ b/Work Logs/Work Log Spreadsheet - Jonathan Mak.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>watched recorded user study, analyzed results</t>
+  </si>
+  <si>
+    <t>Nov 25th</t>
+  </si>
+  <si>
+    <t>analyzed Piazza, coursespaces. Wrote results</t>
   </si>
 </sst>
 </file>
@@ -487,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -714,6 +720,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A4:A6"/>

--- a/Work Logs/Work Log Spreadsheet - Jonathan Mak.xlsx
+++ b/Work Logs/Work Log Spreadsheet - Jonathan Mak.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -145,7 +145,13 @@
     <t>Nov 25th</t>
   </si>
   <si>
-    <t>analyzed Piazza, coursespaces. Wrote results</t>
+    <t>Nov 29th</t>
+  </si>
+  <si>
+    <t>wrote first draft for data analysis for final report</t>
+  </si>
+  <si>
+    <t>analyzed Piazza, coursespaces. Wrote results for final report</t>
   </si>
 </sst>
 </file>
@@ -493,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -725,10 +731,21 @@
         <v>42</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1">
         <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Work Logs/Work Log Spreadsheet - Jonathan Mak.xlsx
+++ b/Work Logs/Work Log Spreadsheet - Jonathan Mak.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -152,6 +152,33 @@
   </si>
   <si>
     <t>analyzed Piazza, coursespaces. Wrote results for final report</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Nov 30th</t>
+  </si>
+  <si>
+    <t>group meeting for presentation slides</t>
+  </si>
+  <si>
+    <t>Dec 3rd</t>
+  </si>
+  <si>
+    <t>group meeting to delegate final paper tasks, first pass at editing</t>
+  </si>
+  <si>
+    <t>Dec 4th</t>
+  </si>
+  <si>
+    <t>fixed citation numbers, more general editing</t>
+  </si>
+  <si>
+    <t>Dec 5th</t>
+  </si>
+  <si>
+    <t>final editing pass</t>
   </si>
 </sst>
 </file>
@@ -499,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -748,6 +775,53 @@
         <v>2</v>
       </c>
     </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A4:A6"/>
